--- a/Code/Results/Cases/Case_5_130/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_130/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5.062554487182467</v>
+        <v>4.576389969013007</v>
       </c>
       <c r="C2">
-        <v>0.7794522374263124</v>
+        <v>0.3342714604665957</v>
       </c>
       <c r="D2">
-        <v>0.01511227129662274</v>
+        <v>0.006836383813318747</v>
       </c>
       <c r="E2">
-        <v>0.01671612379233772</v>
+        <v>0.05039595700303684</v>
       </c>
       <c r="F2">
-        <v>3.301852094397589</v>
+        <v>4.735664047197844</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.05563675632310883</v>
+        <v>0.1416895320638467</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.321046648578573</v>
+        <v>0.4414515150752294</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.498826836852629</v>
+        <v>2.757242386420714</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4.456012385283884</v>
+        <v>4.455837958332722</v>
       </c>
       <c r="C3">
-        <v>0.6710576215096467</v>
+        <v>0.3080797494909575</v>
       </c>
       <c r="D3">
-        <v>0.01280541352537057</v>
+        <v>0.006087666368689071</v>
       </c>
       <c r="E3">
-        <v>0.0166799400896438</v>
+        <v>0.05047652714794171</v>
       </c>
       <c r="F3">
-        <v>3.071331026658754</v>
+        <v>4.707275549390204</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.05648722300142062</v>
+        <v>0.142404487373808</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2886822728086571</v>
+        <v>0.4365187045586794</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.542783323283572</v>
+        <v>2.774832669723523</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4.09276496014661</v>
+        <v>4.3845890641295</v>
       </c>
       <c r="C4">
-        <v>0.6058601095612346</v>
+        <v>0.2922051183752785</v>
       </c>
       <c r="D4">
-        <v>0.01146299882748281</v>
+        <v>0.005626340931215168</v>
       </c>
       <c r="E4">
-        <v>0.01666505588960693</v>
+        <v>0.05053027515297426</v>
       </c>
       <c r="F4">
-        <v>2.937044781441969</v>
+        <v>4.69224851944611</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05706559748524143</v>
+        <v>0.1428772730636485</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2693688971540524</v>
+        <v>0.4337185642581858</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.571970217218748</v>
+        <v>2.786423068807878</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.946770637280736</v>
+        <v>4.356248667022726</v>
       </c>
       <c r="C5">
-        <v>0.5795831755076222</v>
+        <v>0.2857874830917808</v>
       </c>
       <c r="D5">
-        <v>0.01093184368668076</v>
+        <v>0.005437879225244302</v>
       </c>
       <c r="E5">
-        <v>0.01666070026677663</v>
+        <v>0.05055325506186159</v>
       </c>
       <c r="F5">
-        <v>2.883974611734089</v>
+        <v>4.686727119348774</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.05731495460874925</v>
+        <v>0.1430784426896725</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2616244353666985</v>
+        <v>0.4326349052858802</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.584386134427412</v>
+        <v>2.791344288055754</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.92264358647634</v>
+        <v>4.351584614419039</v>
       </c>
       <c r="C6">
-        <v>0.5752361595744446</v>
+        <v>0.2847249244072145</v>
       </c>
       <c r="D6">
-        <v>0.01084453141916342</v>
+        <v>0.005406555212061903</v>
       </c>
       <c r="E6">
-        <v>0.01666007669069947</v>
+        <v>0.05055713596214928</v>
       </c>
       <c r="F6">
-        <v>2.875257449711569</v>
+        <v>4.685846605860192</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.05735717275400809</v>
+        <v>0.1431123606589644</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2603456780983464</v>
+        <v>0.4324584307085217</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.586478480126729</v>
+        <v>2.792173396664921</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4.09078814606687</v>
+        <v>4.384204048535025</v>
       </c>
       <c r="C7">
-        <v>0.6055046112192315</v>
+        <v>0.2921183606683257</v>
       </c>
       <c r="D7">
-        <v>0.01145577453090496</v>
+        <v>0.005623801248152205</v>
       </c>
       <c r="E7">
-        <v>0.0166649903899076</v>
+        <v>0.0505305807044486</v>
       </c>
       <c r="F7">
-        <v>2.936322582447133</v>
+        <v>4.692171620306439</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.05706890565495826</v>
+        <v>0.1428799516596566</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2692639611032774</v>
+        <v>0.4337037172449385</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.572135587163018</v>
+        <v>2.786488637009114</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4.851341334539939</v>
+        <v>4.534246999201685</v>
       </c>
       <c r="C8">
-        <v>0.7417645620676012</v>
+        <v>0.3251971288768232</v>
       </c>
       <c r="D8">
-        <v>0.01429977495122259</v>
+        <v>0.006578521943545468</v>
       </c>
       <c r="E8">
-        <v>0.01670203936630987</v>
+        <v>0.05042285066558033</v>
       </c>
       <c r="F8">
-        <v>3.220754035235359</v>
+        <v>4.725375482668454</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.05591804349659846</v>
+        <v>0.1419290371532487</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3097622906804958</v>
+        <v>0.4397031855137783</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.513507607781165</v>
+        <v>2.763143219145007</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6.429550177981866</v>
+        <v>4.850603414006628</v>
       </c>
       <c r="C9">
-        <v>1.022280529031207</v>
+        <v>0.3917435685590362</v>
       </c>
       <c r="D9">
-        <v>0.02060442713426625</v>
+        <v>0.00844087024803386</v>
       </c>
       <c r="E9">
-        <v>0.01683999909469891</v>
+        <v>0.05024546993411666</v>
       </c>
       <c r="F9">
-        <v>3.844823856614738</v>
+        <v>4.809668012593818</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.05413040491860954</v>
+        <v>0.1403322143123873</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3943517873170919</v>
+        <v>0.4532866387674801</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.417526557192602</v>
+        <v>2.723656710720775</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7.664372753095677</v>
+        <v>5.096745335844389</v>
       </c>
       <c r="C10">
-        <v>1.240577877194141</v>
+        <v>0.4417131830362564</v>
       </c>
       <c r="D10">
-        <v>0.02590867234358996</v>
+        <v>0.009807277632475575</v>
       </c>
       <c r="E10">
-        <v>0.01699316224025504</v>
+        <v>0.05013572106777198</v>
       </c>
       <c r="F10">
-        <v>4.357733417425806</v>
+        <v>4.883454828677458</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.05314022982248545</v>
+        <v>0.1393219986152801</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.4608393657582894</v>
+        <v>0.4643832081064403</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.361071778548464</v>
+        <v>2.698519053072658</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.24846600883177</v>
+        <v>5.211752386229819</v>
       </c>
       <c r="C11">
-        <v>1.343634632130772</v>
+        <v>0.464691975589858</v>
       </c>
       <c r="D11">
-        <v>0.02853039719964556</v>
+        <v>0.01042939837231671</v>
       </c>
       <c r="E11">
-        <v>0.01707751479787722</v>
+        <v>0.05009024535388051</v>
       </c>
       <c r="F11">
-        <v>4.606622125580827</v>
+        <v>4.919634178634141</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.05276983168562666</v>
+        <v>0.1388977419361481</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.4923449592616009</v>
+        <v>0.4696758015430618</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.339112147415094</v>
+        <v>2.687932273078744</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.473458897251817</v>
+        <v>5.255742883157268</v>
       </c>
       <c r="C12">
-        <v>1.383308961029456</v>
+        <v>0.4734299227253587</v>
       </c>
       <c r="D12">
-        <v>0.02955960791958034</v>
+        <v>0.01066512940509767</v>
       </c>
       <c r="E12">
-        <v>0.01711192908536929</v>
+        <v>0.05007366363443322</v>
       </c>
       <c r="F12">
-        <v>4.703480921905538</v>
+        <v>4.93371301120888</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.05264206531205318</v>
+        <v>0.1387421577391592</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.5044879225920624</v>
+        <v>0.4717152914154212</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.331399373493255</v>
+        <v>2.684046041560734</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.424822732071561</v>
+        <v>5.246249128182171</v>
       </c>
       <c r="C13">
-        <v>1.374733580159329</v>
+        <v>0.471546418573098</v>
       </c>
       <c r="D13">
-        <v>0.0293362146697973</v>
+        <v>0.01061435282173306</v>
       </c>
       <c r="E13">
-        <v>0.01710440084735609</v>
+        <v>0.05007720640074709</v>
       </c>
       <c r="F13">
-        <v>4.682497979969526</v>
+        <v>4.930664005281812</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.05266900896462445</v>
+        <v>0.1387754400170955</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.501862715174525</v>
+        <v>0.4712744789963921</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.333032444606133</v>
+        <v>2.684877539615968</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.266896217439239</v>
+        <v>5.215362677103144</v>
       </c>
       <c r="C14">
-        <v>1.346884964228309</v>
+        <v>0.4654101180308317</v>
       </c>
       <c r="D14">
-        <v>0.02861430024888278</v>
+        <v>0.01044878874565569</v>
       </c>
       <c r="E14">
-        <v>0.01708029420382573</v>
+        <v>0.05008886836530735</v>
       </c>
       <c r="F14">
-        <v>4.614536098424423</v>
+        <v>4.920784851331149</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.05275906363762672</v>
+        <v>0.1388848402837546</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.4933395124561599</v>
+        <v>0.4698428834909976</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.338465102410268</v>
+        <v>2.687610086029721</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.170677023431608</v>
+        <v>5.196501210637393</v>
       </c>
       <c r="C15">
-        <v>1.329914957699771</v>
+        <v>0.4616562183531983</v>
       </c>
       <c r="D15">
-        <v>0.02817705950791094</v>
+        <v>0.01034739727096223</v>
       </c>
       <c r="E15">
-        <v>0.01706586209409888</v>
+        <v>0.05009609483968502</v>
       </c>
       <c r="F15">
-        <v>4.573259467770669</v>
+        <v>4.914782957005684</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.05281588390580083</v>
+        <v>0.1389525116278669</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.4881474902771146</v>
+        <v>0.4689705903443979</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.341873473746219</v>
+        <v>2.689299857872101</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7.626699524928654</v>
+        <v>5.089290721179623</v>
       </c>
       <c r="C16">
-        <v>1.233927327938829</v>
+        <v>0.4402165110670921</v>
       </c>
       <c r="D16">
-        <v>0.02574205902462978</v>
+        <v>0.009766637349486018</v>
       </c>
       <c r="E16">
-        <v>0.01698797417169379</v>
+        <v>0.05013878247095127</v>
       </c>
       <c r="F16">
-        <v>4.341811589947469</v>
+        <v>4.881143240022737</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.05316612762522155</v>
+        <v>0.1393504347728687</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.4588083193504247</v>
+        <v>0.4640422581818058</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.362587319563659</v>
+        <v>2.699228060650043</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7.299108651813185</v>
+        <v>5.024300410456988</v>
       </c>
       <c r="C17">
-        <v>1.17607542802125</v>
+        <v>0.4271278696602963</v>
       </c>
       <c r="D17">
-        <v>0.02430594658758878</v>
+        <v>0.009410546862810065</v>
       </c>
       <c r="E17">
-        <v>0.01694418639919953</v>
+        <v>0.05016610893304918</v>
       </c>
       <c r="F17">
-        <v>4.204058507345081</v>
+        <v>4.861177609923999</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.05340214536501087</v>
+        <v>0.13960358564686</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.4411531673258793</v>
+        <v>0.461081638791768</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.376292616214599</v>
+        <v>2.705536529286334</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7.112751676528489</v>
+        <v>4.987205250342186</v>
       </c>
       <c r="C18">
-        <v>1.143146210741691</v>
+        <v>0.4196228631919894</v>
       </c>
       <c r="D18">
-        <v>0.02349914231444927</v>
+        <v>0.009205779137921866</v>
       </c>
       <c r="E18">
-        <v>0.01692035689501981</v>
+        <v>0.05018224525729997</v>
       </c>
       <c r="F18">
-        <v>4.126266028530864</v>
+        <v>4.849939724228818</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.05354536280646371</v>
+        <v>0.139752513669146</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.4311148552567658</v>
+        <v>0.4594017949643074</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.384521222102165</v>
+        <v>2.709244810053477</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7.049992438345782</v>
+        <v>4.974694411488599</v>
       </c>
       <c r="C19">
-        <v>1.132053262980492</v>
+        <v>0.4170857630961109</v>
       </c>
       <c r="D19">
-        <v>0.02322909471089929</v>
+        <v>0.00913645409225694</v>
       </c>
       <c r="E19">
-        <v>0.01691251170024588</v>
+        <v>0.0501877807087977</v>
       </c>
       <c r="F19">
-        <v>4.100163671041486</v>
+        <v>4.846176907089301</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.05359510848907512</v>
+        <v>0.1398035088443077</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4277351835701779</v>
+        <v>0.4588369801846426</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.387364772848372</v>
+        <v>2.710514056278882</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7.33376358007979</v>
+        <v>5.031189163502233</v>
       </c>
       <c r="C20">
-        <v>1.182197350560955</v>
+        <v>0.4285187674723829</v>
       </c>
       <c r="D20">
-        <v>0.0244567923533765</v>
+        <v>0.009448448024087952</v>
       </c>
       <c r="E20">
-        <v>0.01694870495110384</v>
+        <v>0.05016315664032023</v>
       </c>
       <c r="F20">
-        <v>4.218571074006718</v>
+        <v>4.863277524870483</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.05337624148051034</v>
+        <v>0.1395762934766758</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.4430203237931778</v>
+        <v>0.4613944178772726</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.374797432249437</v>
+        <v>2.704856715986608</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.313174464339568</v>
+        <v>5.224422813265846</v>
       </c>
       <c r="C21">
-        <v>1.355046201223445</v>
+        <v>0.4672115044746192</v>
       </c>
       <c r="D21">
-        <v>0.02882529877039985</v>
+        <v>0.01049741436190743</v>
       </c>
       <c r="E21">
-        <v>0.01708730456934227</v>
+        <v>0.05008542562953699</v>
       </c>
       <c r="F21">
-        <v>4.634424045002277</v>
+        <v>4.923676304184596</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.0527322646404933</v>
+        <v>0.1388525691258558</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.4958369424947904</v>
+        <v>0.4702624188607416</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.336852441715322</v>
+        <v>2.68680413345335</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.975829952468985</v>
+        <v>5.353277385893421</v>
       </c>
       <c r="C22">
-        <v>1.471860479323823</v>
+        <v>0.4927118644701522</v>
       </c>
       <c r="D22">
-        <v>0.03189652342631888</v>
+        <v>0.01118386706581731</v>
       </c>
       <c r="E22">
-        <v>0.01719252114465342</v>
+        <v>0.05003834782892291</v>
       </c>
       <c r="F22">
-        <v>4.921640736341061</v>
+        <v>4.965357868210305</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.05238479775094262</v>
+        <v>0.1384091392832261</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.5316125370308953</v>
+        <v>0.47626397875419</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.315607244856452</v>
+        <v>2.675721575942546</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.619872136604386</v>
+        <v>5.284269452310923</v>
       </c>
       <c r="C23">
-        <v>1.409121283925913</v>
+        <v>0.4790821352793841</v>
       </c>
       <c r="D23">
-        <v>0.03023514202478594</v>
+        <v>0.01081738915263486</v>
       </c>
       <c r="E23">
-        <v>0.01713488597987578</v>
+        <v>0.0500631336758437</v>
       </c>
       <c r="F23">
-        <v>4.766796110828523</v>
+        <v>4.942908742006466</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.05256316216984303</v>
+        <v>0.1386431017301319</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.5123917073411803</v>
+        <v>0.4730419636801457</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.326595554587598</v>
+        <v>2.68157079608072</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7.31808996519419</v>
+        <v>5.028073921757596</v>
       </c>
       <c r="C24">
-        <v>1.179428607611953</v>
+        <v>0.4278898808727831</v>
       </c>
       <c r="D24">
-        <v>0.02438853677988106</v>
+        <v>0.009431313059273805</v>
       </c>
       <c r="E24">
-        <v>0.01694665795144479</v>
+        <v>0.05016449004498047</v>
       </c>
       <c r="F24">
-        <v>4.21200559801332</v>
+        <v>4.8623274040458</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.05338792925213198</v>
+        <v>0.1395886217131057</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.4421758361980324</v>
+        <v>0.4612529411390653</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.37547232206758</v>
+        <v>2.70516380591198</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5.991181913785283</v>
+        <v>4.762628969091622</v>
       </c>
       <c r="C25">
-        <v>0.9445806589382357</v>
+        <v>0.3735556747829492</v>
       </c>
       <c r="D25">
-        <v>0.01879945149118356</v>
+        <v>0.007937684988863936</v>
       </c>
       <c r="E25">
-        <v>0.01679457731527378</v>
+        <v>0.05028983783153101</v>
       </c>
       <c r="F25">
-        <v>3.667568923372244</v>
+        <v>4.784794499094176</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.05456023769765039</v>
+        <v>0.1407355528816367</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3708014387167395</v>
+        <v>0.4494164429841589</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.441223570156438</v>
+        <v>2.733661364364977</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_130/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_130/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.576389969013007</v>
+        <v>5.06255448718241</v>
       </c>
       <c r="C2">
-        <v>0.3342714604665957</v>
+        <v>0.7794522374260566</v>
       </c>
       <c r="D2">
-        <v>0.006836383813318747</v>
+        <v>0.01511227129688564</v>
       </c>
       <c r="E2">
-        <v>0.05039595700303684</v>
+        <v>0.01671612379231385</v>
       </c>
       <c r="F2">
-        <v>4.735664047197844</v>
+        <v>3.301852094397617</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1416895320638467</v>
+        <v>0.05563675632314435</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.4414515150752294</v>
+        <v>0.321046648578502</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2.757242386420714</v>
+        <v>1.498826836852658</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4.455837958332722</v>
+        <v>4.456012385283714</v>
       </c>
       <c r="C3">
-        <v>0.3080797494909575</v>
+        <v>0.6710576215097035</v>
       </c>
       <c r="D3">
-        <v>0.006087666368689071</v>
+        <v>0.01280541352548425</v>
       </c>
       <c r="E3">
-        <v>0.05047652714794171</v>
+        <v>0.01667994008964302</v>
       </c>
       <c r="F3">
-        <v>4.707275549390204</v>
+        <v>3.071331026658754</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.142404487373808</v>
+        <v>0.05648722300135844</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.4365187045586794</v>
+        <v>0.2886822728086713</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2.774832669723523</v>
+        <v>1.542783323283558</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4.3845890641295</v>
+        <v>4.092764960146553</v>
       </c>
       <c r="C4">
-        <v>0.2922051183752785</v>
+        <v>0.605860109561462</v>
       </c>
       <c r="D4">
-        <v>0.005626340931215168</v>
+        <v>0.0114629988274757</v>
       </c>
       <c r="E4">
-        <v>0.05053027515297426</v>
+        <v>0.01666505588960704</v>
       </c>
       <c r="F4">
-        <v>4.69224851944611</v>
+        <v>2.937044781441998</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1428772730636485</v>
+        <v>0.0570655974852432</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.4337185642581858</v>
+        <v>0.2693688971540524</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2.786423068807878</v>
+        <v>1.571970217218706</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4.356248667022726</v>
+        <v>3.946770637280849</v>
       </c>
       <c r="C5">
-        <v>0.2857874830917808</v>
+        <v>0.5795831755074232</v>
       </c>
       <c r="D5">
-        <v>0.005437879225244302</v>
+        <v>0.01093184368658484</v>
       </c>
       <c r="E5">
-        <v>0.05055325506186159</v>
+        <v>0.01666070026681099</v>
       </c>
       <c r="F5">
-        <v>4.686727119348774</v>
+        <v>2.883974611734061</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1430784426896725</v>
+        <v>0.05731495460871727</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.4326349052858802</v>
+        <v>0.2616244353666701</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.791344288055754</v>
+        <v>1.584386134427419</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>4.351584614419039</v>
+        <v>3.922643586476227</v>
       </c>
       <c r="C6">
-        <v>0.2847249244072145</v>
+        <v>0.5752361595747004</v>
       </c>
       <c r="D6">
-        <v>0.005406555212061903</v>
+        <v>0.0108445314189396</v>
       </c>
       <c r="E6">
-        <v>0.05055713596214928</v>
+        <v>0.01666007669070463</v>
       </c>
       <c r="F6">
-        <v>4.685846605860192</v>
+        <v>2.875257449711569</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1431123606589644</v>
+        <v>0.05735717275391039</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.4324584307085217</v>
+        <v>0.2603456780984175</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2.792173396664921</v>
+        <v>1.586478480126701</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4.384204048535025</v>
+        <v>4.090788146066984</v>
       </c>
       <c r="C7">
-        <v>0.2921183606683257</v>
+        <v>0.6055046112194873</v>
       </c>
       <c r="D7">
-        <v>0.005623801248152205</v>
+        <v>0.0114557745308943</v>
       </c>
       <c r="E7">
-        <v>0.0505305807044486</v>
+        <v>0.01666499038990737</v>
       </c>
       <c r="F7">
-        <v>4.692171620306439</v>
+        <v>2.936322582447133</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1428799516596566</v>
+        <v>0.057068905655008</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.4337037172449385</v>
+        <v>0.2692639611032064</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2.786488637009114</v>
+        <v>1.572135587163018</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4.534246999201685</v>
+        <v>4.851341334540052</v>
       </c>
       <c r="C8">
-        <v>0.3251971288768232</v>
+        <v>0.7417645620674307</v>
       </c>
       <c r="D8">
-        <v>0.006578521943545468</v>
+        <v>0.01429977495123325</v>
       </c>
       <c r="E8">
-        <v>0.05042285066558033</v>
+        <v>0.0167020393663122</v>
       </c>
       <c r="F8">
-        <v>4.725375482668454</v>
+        <v>3.220754035235416</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1419290371532487</v>
+        <v>0.0559180434965576</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.4397031855137783</v>
+        <v>0.3097622906805668</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2.763143219145007</v>
+        <v>1.513507607781278</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.850603414006628</v>
+        <v>6.429550177981923</v>
       </c>
       <c r="C9">
-        <v>0.3917435685590362</v>
+        <v>1.022280529031207</v>
       </c>
       <c r="D9">
-        <v>0.00844087024803386</v>
+        <v>0.02060442713413124</v>
       </c>
       <c r="E9">
-        <v>0.05024546993411666</v>
+        <v>0.01683999909469369</v>
       </c>
       <c r="F9">
-        <v>4.809668012593818</v>
+        <v>3.844823856614738</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1403322143123873</v>
+        <v>0.05413040491853494</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.4532866387674801</v>
+        <v>0.3943517873170777</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>2.723656710720775</v>
+        <v>1.417526557192531</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.096745335844389</v>
+        <v>7.66437275309562</v>
       </c>
       <c r="C10">
-        <v>0.4417131830362564</v>
+        <v>1.240577877194028</v>
       </c>
       <c r="D10">
-        <v>0.009807277632475575</v>
+        <v>0.02590867234336969</v>
       </c>
       <c r="E10">
-        <v>0.05013572106777198</v>
+        <v>0.01699316224018266</v>
       </c>
       <c r="F10">
-        <v>4.883454828677458</v>
+        <v>4.357733417425806</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1393219986152801</v>
+        <v>0.05314022982224031</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.4643832081064403</v>
+        <v>0.4608393657583747</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>2.698519053072658</v>
+        <v>1.361071778548506</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.211752386229819</v>
+        <v>8.248466008831997</v>
       </c>
       <c r="C11">
-        <v>0.464691975589858</v>
+        <v>1.343634632130886</v>
       </c>
       <c r="D11">
-        <v>0.01042939837231671</v>
+        <v>0.02853039719975214</v>
       </c>
       <c r="E11">
-        <v>0.05009024535388051</v>
+        <v>0.0170775147978971</v>
       </c>
       <c r="F11">
-        <v>4.919634178634141</v>
+        <v>4.606622125580799</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1388977419361481</v>
+        <v>0.05276983168559823</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.4696758015430618</v>
+        <v>0.4923449592616294</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>2.687932273078744</v>
+        <v>1.339112147415065</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.255742883157268</v>
+        <v>8.473458897251703</v>
       </c>
       <c r="C12">
-        <v>0.4734299227253587</v>
+        <v>1.3833089610294</v>
       </c>
       <c r="D12">
-        <v>0.01066512940509767</v>
+        <v>0.0295596079196585</v>
       </c>
       <c r="E12">
-        <v>0.05007366363443322</v>
+        <v>0.01711192908537251</v>
       </c>
       <c r="F12">
-        <v>4.93371301120888</v>
+        <v>4.703480921905538</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1387421577391592</v>
+        <v>0.05264206531207449</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.4717152914154212</v>
+        <v>0.5044879225920624</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>2.684046041560734</v>
+        <v>1.331399373493255</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.246249128182171</v>
+        <v>8.424822732071675</v>
       </c>
       <c r="C13">
-        <v>0.471546418573098</v>
+        <v>1.374733580159727</v>
       </c>
       <c r="D13">
-        <v>0.01061435282173306</v>
+        <v>0.02933621466979019</v>
       </c>
       <c r="E13">
-        <v>0.05007720640074709</v>
+        <v>0.0171044008474267</v>
       </c>
       <c r="F13">
-        <v>4.930664005281812</v>
+        <v>4.682497979969497</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1387754400170955</v>
+        <v>0.05266900896467064</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.4712744789963921</v>
+        <v>0.5018627151744397</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>2.684877539615968</v>
+        <v>1.333032444606175</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.215362677103144</v>
+        <v>8.266896217439353</v>
       </c>
       <c r="C14">
-        <v>0.4654101180308317</v>
+        <v>1.346884964229105</v>
       </c>
       <c r="D14">
-        <v>0.01044878874565569</v>
+        <v>0.02861430024911016</v>
       </c>
       <c r="E14">
-        <v>0.05008886836530735</v>
+        <v>0.01708029420385149</v>
       </c>
       <c r="F14">
-        <v>4.920784851331149</v>
+        <v>4.614536098424423</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1388848402837546</v>
+        <v>0.05275906363762317</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.4698428834909976</v>
+        <v>0.4933395124561599</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>2.687610086029721</v>
+        <v>1.338465102410325</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.196501210637393</v>
+        <v>8.170677023431608</v>
       </c>
       <c r="C15">
-        <v>0.4616562183531983</v>
+        <v>1.329914957699714</v>
       </c>
       <c r="D15">
-        <v>0.01034739727096223</v>
+        <v>0.02817705950831595</v>
       </c>
       <c r="E15">
-        <v>0.05009609483968502</v>
+        <v>0.01706586209407734</v>
       </c>
       <c r="F15">
-        <v>4.914782957005684</v>
+        <v>4.57325946777064</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1389525116278669</v>
+        <v>0.05281588390564806</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.4689705903443979</v>
+        <v>0.4881474902771856</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>2.689299857872101</v>
+        <v>1.341873473746219</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.089290721179623</v>
+        <v>7.626699524928426</v>
       </c>
       <c r="C16">
-        <v>0.4402165110670921</v>
+        <v>1.233927327938545</v>
       </c>
       <c r="D16">
-        <v>0.009766637349486018</v>
+        <v>0.02574205902486426</v>
       </c>
       <c r="E16">
-        <v>0.05013878247095127</v>
+        <v>0.01698797417169584</v>
       </c>
       <c r="F16">
-        <v>4.881143240022737</v>
+        <v>4.341811589947469</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1393504347728687</v>
+        <v>0.05316612762497641</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.4640422581818058</v>
+        <v>0.4588083193503252</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>2.699228060650043</v>
+        <v>1.362587319563758</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.024300410456988</v>
+        <v>7.299108651813356</v>
       </c>
       <c r="C17">
-        <v>0.4271278696602963</v>
+        <v>1.176075428021477</v>
       </c>
       <c r="D17">
-        <v>0.009410546862810065</v>
+        <v>0.02430594658734009</v>
       </c>
       <c r="E17">
-        <v>0.05016610893304918</v>
+        <v>0.01694418639922901</v>
       </c>
       <c r="F17">
-        <v>4.861177609923999</v>
+        <v>4.204058507345081</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.13960358564686</v>
+        <v>0.05340214536501797</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.461081638791768</v>
+        <v>0.4411531673260214</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>2.705536529286334</v>
+        <v>1.376292616214556</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.987205250342186</v>
+        <v>7.112751676528433</v>
       </c>
       <c r="C18">
-        <v>0.4196228631919894</v>
+        <v>1.143146210741122</v>
       </c>
       <c r="D18">
-        <v>0.009205779137921866</v>
+        <v>0.0234991423142894</v>
       </c>
       <c r="E18">
-        <v>0.05018224525729997</v>
+        <v>0.01692035689504279</v>
       </c>
       <c r="F18">
-        <v>4.849939724228818</v>
+        <v>4.126266028530836</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.139752513669146</v>
+        <v>0.0535453628065099</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.4594017949643074</v>
+        <v>0.4311148552567943</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>2.709244810053477</v>
+        <v>1.38452122210208</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.974694411488599</v>
+        <v>7.049992438345839</v>
       </c>
       <c r="C19">
-        <v>0.4170857630961109</v>
+        <v>1.132053262980719</v>
       </c>
       <c r="D19">
-        <v>0.00913645409225694</v>
+        <v>0.02322909471075363</v>
       </c>
       <c r="E19">
-        <v>0.0501877807087977</v>
+        <v>0.01691251170027586</v>
       </c>
       <c r="F19">
-        <v>4.846176907089301</v>
+        <v>4.100163671041514</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1398035088443077</v>
+        <v>0.05359510848887972</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4588369801846426</v>
+        <v>0.4277351835702063</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>2.710514056278882</v>
+        <v>1.387364772848457</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.031189163502233</v>
+        <v>7.333763580079733</v>
       </c>
       <c r="C20">
-        <v>0.4285187674723829</v>
+        <v>1.182197350561012</v>
       </c>
       <c r="D20">
-        <v>0.009448448024087952</v>
+        <v>0.02445679235323439</v>
       </c>
       <c r="E20">
-        <v>0.05016315664032023</v>
+        <v>0.01694870495110828</v>
       </c>
       <c r="F20">
-        <v>4.863277524870483</v>
+        <v>4.21857107400669</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1395762934766758</v>
+        <v>0.05337624148065068</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.4613944178772726</v>
+        <v>0.4430203237932488</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>2.704856715986608</v>
+        <v>1.374797432249451</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.224422813265846</v>
+        <v>8.313174464339681</v>
       </c>
       <c r="C21">
-        <v>0.4672115044746192</v>
+        <v>1.355046201222876</v>
       </c>
       <c r="D21">
-        <v>0.01049741436190743</v>
+        <v>0.02882529877075513</v>
       </c>
       <c r="E21">
-        <v>0.05008542562953699</v>
+        <v>0.01708730456934715</v>
       </c>
       <c r="F21">
-        <v>4.923676304184596</v>
+        <v>4.634424045002277</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1388525691258558</v>
+        <v>0.05273226464046488</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.4702624188607416</v>
+        <v>0.4958369424949609</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>2.68680413345335</v>
+        <v>1.336852441715308</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.353277385893421</v>
+        <v>8.975829952468985</v>
       </c>
       <c r="C22">
-        <v>0.4927118644701522</v>
+        <v>1.471860479323766</v>
       </c>
       <c r="D22">
-        <v>0.01118386706581731</v>
+        <v>0.03189652342646809</v>
       </c>
       <c r="E22">
-        <v>0.05003834782892291</v>
+        <v>0.01719252114468672</v>
       </c>
       <c r="F22">
-        <v>4.965357868210305</v>
+        <v>4.921640736341033</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1384091392832261</v>
+        <v>0.05238479775087868</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.47626397875419</v>
+        <v>0.5316125370308242</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>2.675721575942546</v>
+        <v>1.315607244856452</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.284269452310923</v>
+        <v>8.619872136604386</v>
       </c>
       <c r="C23">
-        <v>0.4790821352793841</v>
+        <v>1.409121283925685</v>
       </c>
       <c r="D23">
-        <v>0.01081738915263486</v>
+        <v>0.0302351420252549</v>
       </c>
       <c r="E23">
-        <v>0.0500631336758437</v>
+        <v>0.01713488597986268</v>
       </c>
       <c r="F23">
-        <v>4.942908742006466</v>
+        <v>4.766796110828523</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1386431017301319</v>
+        <v>0.05256316216986789</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.4730419636801457</v>
+        <v>0.5123917073413224</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>2.68157079608072</v>
+        <v>1.326595554587513</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.028073921757596</v>
+        <v>7.318089965194474</v>
       </c>
       <c r="C24">
-        <v>0.4278898808727831</v>
+        <v>1.179428607611726</v>
       </c>
       <c r="D24">
-        <v>0.009431313059273805</v>
+        <v>0.02438853677980291</v>
       </c>
       <c r="E24">
-        <v>0.05016449004498047</v>
+        <v>0.01694665795140976</v>
       </c>
       <c r="F24">
-        <v>4.8623274040458</v>
+        <v>4.212005598013292</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1395886217131057</v>
+        <v>0.05338792925225988</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.4612529411390653</v>
+        <v>0.4421758361979897</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>2.70516380591198</v>
+        <v>1.37547232206758</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.762628969091622</v>
+        <v>5.991181913785397</v>
       </c>
       <c r="C25">
-        <v>0.3735556747829492</v>
+        <v>0.9445806589380652</v>
       </c>
       <c r="D25">
-        <v>0.007937684988863936</v>
+        <v>0.01879945149104856</v>
       </c>
       <c r="E25">
-        <v>0.05028983783153101</v>
+        <v>0.01679457731527062</v>
       </c>
       <c r="F25">
-        <v>4.784794499094176</v>
+        <v>3.667568923372272</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1407355528816367</v>
+        <v>0.05456023769763085</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.4494164429841589</v>
+        <v>0.3708014387167111</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>2.733661364364977</v>
+        <v>1.441223570156438</v>
       </c>
       <c r="O25">
         <v>0</v>
